--- a/Listas/Lista04-resolucao.xlsx
+++ b/Listas/Lista04-resolucao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -328,7 +329,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -507,12 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -526,34 +521,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -837,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C55" sqref="A50:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +849,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -937,7 +933,7 @@
         <f>D8/D9</f>
         <v>0.9620314001922462</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -974,54 +970,54 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="26"/>
+      <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <f>_xlfn.F.INV.RT(0.05,B7,B9)</f>
         <v>2.7108898372096917</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <f>_xlfn.F.INV.RT(0.05,B8,B9)</f>
         <v>2.8660814020156589</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <f>_xlfn.F.INV.RT(0.01,B7,B9)</f>
         <v>4.1026846305847338</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f>_xlfn.F.INV.RT(0.01,B8,B9)</f>
         <v>4.4306901614377745</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
@@ -1029,7 +1025,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -1037,19 +1033,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="G22" s="21" t="s">
+      <c r="E22" s="28"/>
+      <c r="G22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1061,16 +1057,16 @@
       <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1084,17 +1080,17 @@
       <c r="C24">
         <v>23.42</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="18">
-        <f>D24*C24</f>
+      <c r="E24" s="16">
+        <f t="shared" ref="E24:E29" si="1">D24*C24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>2</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <f>G24*C24</f>
         <v>46.84</v>
       </c>
@@ -1109,18 +1105,18 @@
       <c r="C25">
         <v>36.46</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="18">
-        <f>D25*C25</f>
+      <c r="E25" s="16">
+        <f t="shared" si="1"/>
         <v>36.46</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>-1</v>
       </c>
-      <c r="H25" s="18">
-        <f t="shared" ref="H25:H29" si="1">G25*C25</f>
+      <c r="H25" s="16">
+        <f t="shared" ref="H25:H29" si="2">G25*C25</f>
         <v>-36.46</v>
       </c>
     </row>
@@ -1134,18 +1130,18 @@
       <c r="C26">
         <v>40.159999999999997</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>-1</v>
       </c>
-      <c r="E26" s="18">
-        <f>D26*C26</f>
+      <c r="E26" s="16">
+        <f t="shared" si="1"/>
         <v>-40.159999999999997</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>-1</v>
       </c>
-      <c r="H26" s="18">
-        <f t="shared" si="1"/>
+      <c r="H26" s="16">
+        <f t="shared" si="2"/>
         <v>-40.159999999999997</v>
       </c>
     </row>
@@ -1159,18 +1155,18 @@
       <c r="C27">
         <v>47.58</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="18">
-        <f>D27*C27</f>
+      <c r="E27" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>0</v>
       </c>
-      <c r="H27" s="18">
-        <f t="shared" si="1"/>
+      <c r="H27" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1184,18 +1180,18 @@
       <c r="C28">
         <v>37.74</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="18">
-        <f>D28*C28</f>
+      <c r="E28" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>0</v>
       </c>
-      <c r="H28" s="18">
-        <f t="shared" si="1"/>
+      <c r="H28" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1209,65 +1205,65 @@
       <c r="C29" s="5">
         <v>33.9</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="18">
-        <f>D29*C29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="E29" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <f>SUM(E24:E29)</f>
         <v>-3.6999999999999957</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="14">
         <f>SUM(H24:H29)</f>
         <v>-29.779999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <f>SUMPRODUCT(D24:D29,D24:D29)*D9/B3</f>
         <v>3.7451999999999996</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <f>SUMPRODUCT(G24:G29,G24:G29)*D9/B3</f>
         <v>11.2356</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <f>SQRT(E31)</f>
         <v>1.9352519215854043</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <f>SQRT(H31)</f>
         <v>3.3519546536312212</v>
       </c>
@@ -1289,79 +1285,79 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="19">
         <f>_xlfn.T.INV(0.025,20)</f>
         <v>-2.0859634472658648</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="19">
         <f>_xlfn.T.INV(0.025,20)</f>
         <v>-2.0859634472658648</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="20">
         <f>_xlfn.T.INV(0.005,20)</f>
         <v>-2.8453397097861091</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="20">
         <f>_xlfn.T.INV(0.005,20)</f>
         <v>-2.8453397097861091</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="G36" s="25" t="s">
+      <c r="E36" s="30"/>
+      <c r="G36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="26"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="G37" s="8" t="s">
+      <c r="E37" s="16"/>
+      <c r="G37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="G38" s="8" t="s">
+      <c r="E38" s="16"/>
+      <c r="G38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="G39" s="10" t="s">
+      <c r="E39" s="18"/>
+      <c r="G39" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1404,78 +1400,78 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="13">
+        <v>47.58</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="15">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="15">
+        <v>37.74</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="15">
+        <v>36.46</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="21">
+        <v>33.9</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="15">
-        <v>47.58</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="17">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="17">
-        <v>37.74</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="17">
-        <v>36.46</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="27">
-        <v>33.9</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="19">
+      <c r="B55" s="17">
         <v>23.42</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1497,170 +1493,170 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="12">
         <v>40.159999999999997</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="13">
         <v>37.74</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="13">
         <v>36.46</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="23">
         <v>33.9</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <v>23.42</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="16">
         <v>47.58</v>
       </c>
-      <c r="C61" s="8">
-        <f>IF($B61&lt;=C$60,"",$B61-C$60)</f>
+      <c r="C61" s="6">
+        <f t="shared" ref="C61:G65" si="3">IF($B61&lt;=C$60,"",$B61-C$60)</f>
         <v>7.4200000000000017</v>
       </c>
-      <c r="D61" s="17">
-        <f>IF($B61&lt;=D$60,"",$B61-D$60)</f>
+      <c r="D61" s="15">
+        <f t="shared" si="3"/>
         <v>9.8399999999999963</v>
       </c>
-      <c r="E61" s="17">
-        <f>IF($B61&lt;=E$60,"",$B61-E$60)</f>
+      <c r="E61" s="15">
+        <f t="shared" si="3"/>
         <v>11.119999999999997</v>
       </c>
-      <c r="F61" s="17">
-        <f>IF($B61&lt;=F$60,"",$B61-F$60)</f>
+      <c r="F61" s="15">
+        <f t="shared" si="3"/>
         <v>13.68</v>
       </c>
-      <c r="G61" s="18">
-        <f>IF($B61&lt;=G$60,"",$B61-G$60)</f>
+      <c r="G61" s="16">
+        <f t="shared" si="3"/>
         <v>24.159999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="16">
         <v>40.159999999999997</v>
       </c>
-      <c r="C62" s="8" t="str">
-        <f>IF($B62&lt;=C$60,"",$B62-C$60)</f>
+      <c r="C62" s="6" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D62" s="17">
-        <f>IF($B62&lt;=D$60,"",$B62-D$60)</f>
+      <c r="D62" s="15">
+        <f t="shared" si="3"/>
         <v>2.4199999999999946</v>
       </c>
-      <c r="E62" s="17">
-        <f>IF($B62&lt;=E$60,"",$B62-E$60)</f>
+      <c r="E62" s="15">
+        <f t="shared" si="3"/>
         <v>3.6999999999999957</v>
       </c>
-      <c r="F62" s="17">
-        <f>IF($B62&lt;=F$60,"",$B62-F$60)</f>
+      <c r="F62" s="15">
+        <f t="shared" si="3"/>
         <v>6.259999999999998</v>
       </c>
-      <c r="G62" s="18">
-        <f>IF($B62&lt;=G$60,"",$B62-G$60)</f>
+      <c r="G62" s="16">
+        <f t="shared" si="3"/>
         <v>16.739999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="16">
         <v>37.74</v>
       </c>
-      <c r="C63" s="8" t="str">
-        <f>IF($B63&lt;=C$60,"",$B63-C$60)</f>
+      <c r="C63" s="6" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D63" s="17" t="str">
-        <f>IF($B63&lt;=D$60,"",$B63-D$60)</f>
+      <c r="D63" s="15" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E63" s="17">
-        <f>IF($B63&lt;=E$60,"",$B63-E$60)</f>
+      <c r="E63" s="15">
+        <f t="shared" si="3"/>
         <v>1.2800000000000011</v>
       </c>
-      <c r="F63" s="17">
-        <f>IF($B63&lt;=F$60,"",$B63-F$60)</f>
+      <c r="F63" s="15">
+        <f t="shared" si="3"/>
         <v>3.8400000000000034</v>
       </c>
-      <c r="G63" s="18">
-        <f>IF($B63&lt;=G$60,"",$B63-G$60)</f>
+      <c r="G63" s="16">
+        <f t="shared" si="3"/>
         <v>14.32</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="16">
         <v>36.46</v>
       </c>
-      <c r="C64" s="8" t="str">
-        <f>IF($B64&lt;=C$60,"",$B64-C$60)</f>
+      <c r="C64" s="6" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D64" s="17" t="str">
-        <f>IF($B64&lt;=D$60,"",$B64-D$60)</f>
+      <c r="D64" s="15" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E64" s="17" t="str">
-        <f>IF($B64&lt;=E$60,"",$B64-E$60)</f>
+      <c r="E64" s="15" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F64" s="17">
-        <f>IF($B64&lt;=F$60,"",$B64-F$60)</f>
+      <c r="F64" s="15">
+        <f t="shared" si="3"/>
         <v>2.5600000000000023</v>
       </c>
-      <c r="G64" s="18">
-        <f>IF($B64&lt;=G$60,"",$B64-G$60)</f>
+      <c r="G64" s="16">
+        <f t="shared" si="3"/>
         <v>13.04</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="9">
         <v>33.9</v>
       </c>
-      <c r="C65" s="10" t="str">
-        <f>IF($B65&lt;=C$60,"",$B65-C$60)</f>
+      <c r="C65" s="8" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D65" s="19" t="str">
-        <f>IF($B65&lt;=D$60,"",$B65-D$60)</f>
+      <c r="D65" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E65" s="19" t="str">
-        <f>IF($B65&lt;=E$60,"",$B65-E$60)</f>
+      <c r="E65" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F65" s="19" t="str">
-        <f>IF($B65&lt;=F$60,"",$B65-F$60)</f>
+      <c r="F65" s="17" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G65" s="20">
-        <f>IF($B65&lt;=G$60,"",$B65-G$60)</f>
+      <c r="G65" s="18">
+        <f t="shared" si="3"/>
         <v>10.479999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="24" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1692,7 +1688,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1736,4 +1732,16 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Listas/Lista04-resolucao.xlsx
+++ b/Listas/Lista04-resolucao.xlsx
@@ -833,9 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C55" sqref="A50:C55"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Listas/Lista04-resolucao.xlsx
+++ b/Listas/Lista04-resolucao.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79881E59-EAEA-4E1D-BDB3-EA0193D9B737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -318,16 +330,16 @@
     <t>Na comparação de Bourbon vs. (Brasil + Extrema) a melhor variedade fou a Bourbon pois apresentou menor acidez.</t>
   </si>
   <si>
-    <t>Pelo teste de Tukey a melhor variedade foi a Oliveira, por apresentou melhor qualidade uma vez que teve menor acidez, em comparação</t>
-  </si>
-  <si>
     <t>às demais variedades testadas</t>
+  </si>
+  <si>
+    <t>Pelo teste de Tukey a melhor variedade foi a Bourbon, por apresentou melhor qualidade uma vez que teve menor acidez, em comparação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -501,12 +513,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -517,16 +528,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
@@ -847,7 +854,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -890,7 +897,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -931,7 +938,7 @@
         <f>D8/D9</f>
         <v>0.9620314001922462</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -968,54 +975,54 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="21"/>
+      <c r="D12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>_xlfn.F.INV.RT(0.05,B7,B9)</f>
         <v>2.7108898372096917</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f>_xlfn.F.INV.RT(0.05,B8,B9)</f>
         <v>2.8660814020156589</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <f>_xlfn.F.INV.RT(0.01,B7,B9)</f>
         <v>4.1026846305847338</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f>_xlfn.F.INV.RT(0.01,B8,B9)</f>
         <v>4.4306901614377745</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
@@ -1023,7 +1030,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -1031,19 +1038,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="G22" s="27" t="s">
+      <c r="E22" s="23"/>
+      <c r="G22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1055,16 +1062,16 @@
       <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1078,17 +1085,17 @@
       <c r="C24">
         <v>23.42</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <f t="shared" ref="E24:E29" si="1">D24*C24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="14">
         <f>G24*C24</f>
         <v>46.84</v>
       </c>
@@ -1103,17 +1110,17 @@
       <c r="C25">
         <v>36.46</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <f t="shared" si="1"/>
         <v>36.46</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>-1</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="14">
         <f t="shared" ref="H25:H29" si="2">G25*C25</f>
         <v>-36.46</v>
       </c>
@@ -1128,17 +1135,17 @@
       <c r="C26">
         <v>40.159999999999997</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>-1</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <f t="shared" si="1"/>
         <v>-40.159999999999997</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>-1</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="14">
         <f t="shared" si="2"/>
         <v>-40.159999999999997</v>
       </c>
@@ -1153,17 +1160,17 @@
       <c r="C27">
         <v>47.58</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>0</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1178,17 +1185,17 @@
       <c r="C28">
         <v>37.74</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>0</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1200,68 +1207,68 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>33.9</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>0</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>0</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <f>SUM(E24:E29)</f>
         <v>-3.6999999999999957</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <f>SUM(H24:H29)</f>
         <v>-29.779999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <f>SUMPRODUCT(D24:D29,D24:D29)*D9/B3</f>
         <v>3.7451999999999996</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="14">
         <f>SUMPRODUCT(G24:G29,G24:G29)*D9/B3</f>
         <v>11.2356</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <f>SQRT(E31)</f>
         <v>1.9352519215854043</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <f>SQRT(H31)</f>
         <v>3.3519546536312212</v>
       </c>
@@ -1283,79 +1290,79 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <f>_xlfn.T.INV(0.025,20)</f>
         <v>-2.0859634472658648</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <f>_xlfn.T.INV(0.025,20)</f>
         <v>-2.0859634472658648</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <f>_xlfn.T.INV(0.005,20)</f>
         <v>-2.8453397097861091</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <f>_xlfn.T.INV(0.005,20)</f>
         <v>-2.8453397097861091</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="G36" s="29" t="s">
+      <c r="E36" s="25"/>
+      <c r="G36" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="30"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="G37" s="6" t="s">
+      <c r="E37" s="14"/>
+      <c r="G37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="G38" s="6" t="s">
+      <c r="E38" s="14"/>
+      <c r="G38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="G39" s="8" t="s">
+      <c r="E39" s="16"/>
+      <c r="G39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1398,78 +1405,78 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>47.58</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51">
         <v>40.159999999999997</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52">
         <v>37.74</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53">
         <v>36.46</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="4">
         <v>33.9</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="15">
         <v>23.42</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1491,175 +1498,175 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>40.159999999999997</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <v>37.74</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="12">
         <v>36.46</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="19">
         <v>33.9</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>23.42</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>47.58</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <f t="shared" ref="C61:G65" si="3">IF($B61&lt;=C$60,"",$B61-C$60)</f>
         <v>7.4200000000000017</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61">
         <f t="shared" si="3"/>
         <v>9.8399999999999963</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61">
         <f t="shared" si="3"/>
         <v>11.119999999999997</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61">
         <f t="shared" si="3"/>
         <v>13.68</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="14">
         <f t="shared" si="3"/>
         <v>24.159999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
         <v>40.159999999999997</v>
       </c>
-      <c r="C62" s="6" t="str">
+      <c r="C62" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D62" s="15">
+      <c r="D62">
         <f t="shared" si="3"/>
         <v>2.4199999999999946</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62">
         <f t="shared" si="3"/>
         <v>3.6999999999999957</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62">
         <f t="shared" si="3"/>
         <v>6.259999999999998</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="14">
         <f t="shared" si="3"/>
         <v>16.739999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>37.74</v>
       </c>
-      <c r="C63" s="6" t="str">
+      <c r="C63" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D63" s="15" t="str">
+      <c r="D63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E63" s="15">
+      <c r="E63">
         <f t="shared" si="3"/>
         <v>1.2800000000000011</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63">
         <f t="shared" si="3"/>
         <v>3.8400000000000034</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="14">
         <f t="shared" si="3"/>
         <v>14.32</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="14">
         <v>36.46</v>
       </c>
-      <c r="C64" s="6" t="str">
+      <c r="C64" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D64" s="15" t="str">
+      <c r="D64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E64" s="15" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F64" s="15">
+      <c r="F64">
         <f t="shared" si="3"/>
         <v>2.5600000000000023</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="14">
         <f t="shared" si="3"/>
         <v>13.04</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>33.9</v>
       </c>
-      <c r="C65" s="8" t="str">
+      <c r="C65" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D65" s="17" t="str">
+      <c r="D65" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E65" s="17" t="str">
+      <c r="E65" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F65" s="17" t="str">
+      <c r="F65" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="16">
         <f t="shared" si="3"/>
         <v>10.479999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
@@ -1668,7 +1675,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
@@ -1677,7 +1684,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
@@ -1686,7 +1693,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1702,16 +1709,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A50:B55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:B55">
     <sortCondition descending="1" ref="B50:B55"/>
   </sortState>
   <mergeCells count="6">
@@ -1733,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>

--- a/Listas/Lista04-resolucao.xlsx
+++ b/Listas/Lista04-resolucao.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79881E59-EAEA-4E1D-BDB3-EA0193D9B737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102BF89-3579-448C-952E-81EDFDCA0AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,9 +93,6 @@
   </si>
   <si>
     <t>NS</t>
-  </si>
-  <si>
-    <t>Rejeitamos H0 ao nível de 1% de probabilidade e concluímos que os tratamentos causa variação na variável resposta.</t>
   </si>
   <si>
     <t>Bloco:</t>
@@ -271,21 +267,6 @@
     <t>Tukey</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -334,6 +315,24 @@
   </si>
   <si>
     <t>Pelo teste de Tukey a melhor variedade foi a Bourbon, por apresentou melhor qualidade uma vez que teve menor acidez, em comparação</t>
+  </si>
+  <si>
+    <t>Rejeitamos H0 ao nível de 1% de probabilidade e concluímos que os tratamentos causam variação na variável resposta.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -840,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -855,7 +856,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,32 +1024,32 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="23"/>
       <c r="G22" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -1057,30 +1058,30 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="G23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>23.42</v>
@@ -1102,10 +1103,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>36.46</v>
@@ -1127,10 +1128,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>40.159999999999997</v>
@@ -1152,10 +1153,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>47.58</v>
@@ -1177,10 +1178,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>37.74</v>
@@ -1202,10 +1203,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
         <v>33.9</v>
@@ -1227,14 +1228,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="13">
         <f>SUM(E24:E29)</f>
         <v>-3.6999999999999957</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="13">
         <f>SUM(H24:H29)</f>
@@ -1243,14 +1244,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="14">
         <f>SUMPRODUCT(D24:D29,D24:D29)*D9/B3</f>
         <v>3.7451999999999996</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="14">
         <f>SUMPRODUCT(G24:G29,G24:G29)*D9/B3</f>
@@ -1259,14 +1260,14 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="16">
         <f>SQRT(E31)</f>
         <v>1.9352519215854043</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" s="16">
         <f>SQRT(H31)</f>
@@ -1275,14 +1276,14 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="3">
         <f>E30/E32</f>
         <v>-1.9118957892411588</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="3">
         <f>H30/H32</f>
@@ -1291,14 +1292,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="17">
         <f>_xlfn.T.INV(0.025,20)</f>
         <v>-2.0859634472658648</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="17">
         <f>_xlfn.T.INV(0.025,20)</f>
@@ -1307,14 +1308,14 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="18">
         <f>_xlfn.T.INV(0.005,20)</f>
         <v>-2.8453397097861091</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35" s="18">
         <f>_xlfn.T.INV(0.005,20)</f>
@@ -1323,52 +1324,52 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="25"/>
       <c r="G36" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="D37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="14"/>
       <c r="G37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="14"/>
       <c r="G38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="16"/>
       <c r="G39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <f>SQRT(D9/B3)</f>
@@ -1377,7 +1378,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>4.45</v>
@@ -1385,7 +1386,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <f>B45*B44</f>
@@ -1398,111 +1399,111 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="12">
         <v>47.58</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>40.159999999999997</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52">
         <v>37.74</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>36.46</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="4">
         <v>33.9</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="15">
         <v>23.42</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G59" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="C60" s="11">
         <v>40.159999999999997</v>
@@ -1522,17 +1523,17 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="14">
         <v>47.58</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" ref="C61:G65" si="3">IF($B61&lt;=C$60,"",$B61-C$60)</f>
+        <f>IF($B61&lt;=C$60,"",$B61-C$60)</f>
         <v>7.4200000000000017</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C61:G65" si="3">IF($B61&lt;=D$60,"",$B61-D$60)</f>
         <v>9.8399999999999963</v>
       </c>
       <c r="E61">
@@ -1550,7 +1551,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" s="14">
         <v>40.159999999999997</v>
@@ -1578,7 +1579,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="14">
         <v>37.74</v>
@@ -1606,7 +1607,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" s="14">
         <v>36.46</v>
@@ -1634,7 +1635,7 @@
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="8">
         <v>33.9</v>
@@ -1662,12 +1663,12 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <f>AVERAGE(C24:C29)</f>
@@ -1676,7 +1677,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <f>SQRT(D9)</f>
@@ -1685,7 +1686,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <f>100*B69/B68</f>
@@ -1694,27 +1695,27 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1737,16 +1738,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>